--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1285038.894798357</v>
+        <v>1349104.975319593</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18146847.35069214</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2084488.700652242</v>
+        <v>606553.2040797162</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6267128.079736515</v>
+        <v>6752994.413993616</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>104.9280174998259</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>274.8775098832064</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +822,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>102.8562685532377</v>
       </c>
       <c r="E4" t="n">
-        <v>43.70143389869411</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7069096796296</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>44.69616728427791</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1057,13 +1059,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>39.86022305741691</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,10 +1113,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>155.3381242842674</v>
+        <v>411.9403696282984</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.57637241135515</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>12.11553319608741</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>147.5073078189425</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1591,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494637</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>10.1507312021306</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1658,13 +1660,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>113.8331274979614</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>90.59002589087447</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>104.6990987647609</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2242,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>61.23284287475791</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.49380289235361</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.10461178739049</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2962,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>5.990622819018522</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>27.07950026194735</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>194.740859798205</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998732</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3746,16 +3748,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>161.5806449466166</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>85.8805502865557</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>46.45303019605547</v>
+        <v>135.1077460700517</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3980,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2807273418463</v>
       </c>
       <c r="E44" t="n">
-        <v>290.292830721883</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1456.941072251152</v>
+        <v>1919.879325414606</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.953175786681</v>
+        <v>1481.736852598029</v>
       </c>
       <c r="D2" t="n">
-        <v>915.0433909611256</v>
+        <v>1449.867471812878</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365254</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="W2" t="n">
-        <v>2306.628825816691</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X2" t="n">
-        <v>1887.486362396002</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y2" t="n">
-        <v>1479.200238695656</v>
+        <v>2346.178895899513</v>
       </c>
     </row>
     <row r="3">
@@ -4386,13 +4388,13 @@
         <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
         <v>1133.941806870223</v>
@@ -4401,34 +4403,34 @@
         <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>1331.379389918832</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="N3" t="n">
-        <v>2018.283117621068</v>
+        <v>1992.21944446061</v>
       </c>
       <c r="O3" t="n">
-        <v>2018.283117621068</v>
+        <v>2129.321887799353</v>
       </c>
       <c r="P3" t="n">
-        <v>2018.283117621068</v>
+        <v>2129.321887799353</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R3" t="n">
         <v>2670.060826431428</v>
@@ -4443,13 +4445,13 @@
         <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
         <v>1634.296711023675</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E4" t="n">
-        <v>358.8946658124264</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,13 +4500,13 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1789.512437976118</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
-        <v>1351.369965159541</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>915.4601803339856</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.540662806093</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2009.22077188965</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621484</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1423.298891966344</v>
       </c>
       <c r="X5" t="n">
-        <v>2624.098132161372</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>2215.812008461025</v>
+        <v>595.8703048453078</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4650,13 +4652,13 @@
         <v>79.46488968908616</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308645</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.144998772643</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="O6" t="n">
         <v>1401.144998772643</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>528.6526695616892</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>358.8946658124264</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4759,16 +4761,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1520.229656013941</v>
+        <v>969.2487943945852</v>
       </c>
       <c r="C8" t="n">
-        <v>1082.087183197364</v>
+        <v>935.1467256184126</v>
       </c>
       <c r="D8" t="n">
-        <v>646.1773983718085</v>
+        <v>499.2369407928571</v>
       </c>
       <c r="E8" t="n">
-        <v>212.4026535301037</v>
+        <v>469.5025999915563</v>
       </c>
       <c r="F8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>490.7501447362868</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1177.506428617977</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1864.262712499668</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1864.262712499668</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1864.262712499668</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.018996381359</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2551.018996381359</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2774.772864168447</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>2774.772864168447</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2774.772864168447</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2774.772864168447</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2774.772864168447</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2774.772864168447</v>
+        <v>2223.792002549092</v>
       </c>
       <c r="W8" t="n">
-        <v>2773.957813619884</v>
+        <v>1818.936547960125</v>
       </c>
       <c r="X8" t="n">
-        <v>2354.815350199195</v>
+        <v>1399.794084539436</v>
       </c>
       <c r="Y8" t="n">
-        <v>1946.529226498848</v>
+        <v>991.5079608390889</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>561.6672022746617</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>455.210741111304</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>360.1204522578573</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>266.000037584811</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>182.6161992009726</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>97.23110946715647</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>55.49545728336894</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>55.49545728336894</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>55.49545728336894</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>55.49545728336894</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>742.2517411650596</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1060.823502035762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1060.823502035762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.823502035762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1601.562440667838</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1718.735218762178</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1655.279781210561</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1525.101137541162</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.764590541131</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.64707260313</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>964.324318336324</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>809.4568825752041</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.9711033544248</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>743.5714734063531</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>571.009761889578</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>405.1317690911008</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>235.373765341838</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>235.373765341838</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>235.373765341838</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>95.47159103221253</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>142.0751424480588</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.8335970191944</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>835.0434787871554</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1294.527345968068</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.786149125713</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2156.455398351494</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.962292321836</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2672.155067186169</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2650.737245891541</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2491.495877189537</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2245.616430767992</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1967.183430021098</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1680.227921891528</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1408.20151747782</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.809762811232</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>935.3900921253403</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1791.189889357998</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.047416541422</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>917.1376317158661</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
-        <v>483.3628868741612</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F11" t="n">
-        <v>55.49545728336894</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>55.49545728336894</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>55.49545728336894</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>742.2517411650596</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L11" t="n">
-        <v>1429.00802504675</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="M11" t="n">
-        <v>1429.00802504675</v>
+        <v>1686.072621982323</v>
       </c>
       <c r="N11" t="n">
-        <v>1429.00802504675</v>
+        <v>2811.80360541877</v>
       </c>
       <c r="O11" t="n">
-        <v>2115.764308928441</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2228.274078209852</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2774.772864168447</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2774.772864168447</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2774.772864168447</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2774.772864168447</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2774.772864168447</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>2774.772864168447</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>2625.775583543253</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2217.489459842906</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>55.49545728336894</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K12" t="n">
-        <v>55.49545728336894</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2226509987966</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>1031.978934880487</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>1031.978934880487</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1718.735218762178</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1718.735218762178</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1718.735218762178</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1134.55361789525</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>961.9919063784752</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>796.1139135799979</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>626.3559098307352</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>449.6488557924914</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>284.0575808183191</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>144.1554065086936</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.155067186169</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.155067186169</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.275620764624</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.165574509995</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.210066380425</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.183661966717</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.791907300129</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y13" t="n">
-        <v>1326.372236614237</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>917.554421088726</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>917.554421088726</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>917.554421088726</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>483.7796762470212</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>55.91224665622894</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>55.91224665622894</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91224665622894</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>742.2517411650596</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L14" t="n">
-        <v>1429.00802504675</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M14" t="n">
-        <v>1429.00802504675</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N14" t="n">
-        <v>1429.00802504675</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O14" t="n">
-        <v>2115.764308928441</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="P14" t="n">
-        <v>2228.274078209852</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="Q14" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2691.120990352284</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2691.120990352284</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2691.120990352284</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2576.138033283636</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2171.28257869467</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>1752.14011527398</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1343.853991573634</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>380.0537822495813</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>380.0537822495813</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>914.8061567861474</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>914.8061567861474</v>
+        <v>596.6048817268487</v>
       </c>
       <c r="N15" t="n">
-        <v>914.8061567861474</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="O15" t="n">
-        <v>914.8061567861474</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P15" t="n">
-        <v>1601.562440667838</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q15" t="n">
-        <v>1601.562440667838</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1134.55361789525</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>961.9919063784752</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>796.1139135799979</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>626.3559098307352</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>449.6488557924914</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>284.0575808183191</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.1554065086936</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.155067186169</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.155067186169</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.275620764624</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U16" t="n">
-        <v>2358.165574509995</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.210066380425</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.183661966717</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.791907300129</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1326.372236614237</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5543,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>526.2700682195393</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>356.5120644702766</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2613.163784754629</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2367.284338333084</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,25 +5752,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.441008084184</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C22" t="n">
-        <v>842.8792965674086</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V22" t="n">
-        <v>1952.097456569358</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W22" t="n">
-        <v>1680.07105215565</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X22" t="n">
-        <v>1434.679297489062</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y22" t="n">
-        <v>1207.259626803171</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6236,40 +6238,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3346.878440713113</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>3174.316729196338</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>3008.438736397861</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>2838.680732648598</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>2661.973678610354</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>4408.070376373911</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>4121.114868244342</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>3849.088463830633</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>3603.696709164046</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.277038478154</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6473,40 +6475,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O29" t="n">
-        <v>4552.836435941488</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2712.869316012954</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2553.627947310951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2307.748500889406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2029.315500142511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3462.891420506061</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C34" t="n">
-        <v>3290.329708989286</v>
+        <v>3174.316729196337</v>
       </c>
       <c r="D34" t="n">
-        <v>3124.451716190809</v>
+        <v>3008.43873639786</v>
       </c>
       <c r="E34" t="n">
-        <v>2954.693712441546</v>
+        <v>2838.680732648597</v>
       </c>
       <c r="F34" t="n">
-        <v>2777.986658403302</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G34" t="n">
-        <v>2612.39538342913</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>4848.923398074751</v>
       </c>
       <c r="U34" t="n">
-        <v>4686.503377120805</v>
+        <v>4570.490397327857</v>
       </c>
       <c r="V34" t="n">
-        <v>4399.547868991236</v>
+        <v>4283.534889198288</v>
       </c>
       <c r="W34" t="n">
-        <v>4127.521464577528</v>
+        <v>4011.508484784579</v>
       </c>
       <c r="X34" t="n">
-        <v>3882.12970991094</v>
+        <v>3766.116730117991</v>
       </c>
       <c r="Y34" t="n">
-        <v>3654.710039225049</v>
+        <v>3538.6970594321</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,40 +6949,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>839.0206718702449</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>666.4589603534698</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>500.5809675549925</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>330.8229638057298</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1258.258961275124</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1030.839290589232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1521.044706562504</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1082.902233745927</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>646.9924489203713</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>483.7796762470212</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>55.91224665622894</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>55.91224665622894</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91224665622894</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>55.49545728336894</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>714.5040125233754</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1401.260296405066</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M41" t="n">
-        <v>2088.016580286757</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N41" t="n">
-        <v>2088.016580286757</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O41" t="n">
-        <v>2774.772864168447</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
-        <v>2774.772864168447</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2774.772864168447</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2774.772864168447</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U41" t="n">
-        <v>2774.772864168447</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V41" t="n">
-        <v>2774.772864168447</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W41" t="n">
-        <v>2774.772864168447</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X41" t="n">
-        <v>2355.630400747758</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>1947.344277047411</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>81.55913044382655</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>406.1174554100389</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>406.1174554100389</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>406.1174554100389</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>406.1174554100389</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1092.873739291729</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1092.873739291729</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1092.873739291729</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1601.562440667838</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1118.21567480234</v>
+        <v>973.664734160825</v>
       </c>
       <c r="C43" t="n">
-        <v>945.6539632855648</v>
+        <v>801.1030226440499</v>
       </c>
       <c r="D43" t="n">
-        <v>898.7317105622765</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="E43" t="n">
-        <v>728.9737068130137</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>552.2666527747699</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>386.6753778005976</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>246.7732034909721</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>158.1132542656474</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>244.6929394303373</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>519.4513940014729</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>937.6612757694339</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1397.145142950347</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1839.403946107991</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2259.073195333773</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2606.580089304115</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2774.772864168447</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2753.355042873819</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2594.113674171816</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2348.234227750271</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2069.801227003376</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1782.845718873806</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1782.845718873806</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1537.453964207219</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1310.034293521327</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1940.187169983193</v>
+        <v>2512.649123755838</v>
       </c>
       <c r="C44" t="n">
-        <v>1502.044697166616</v>
+        <v>2074.506650939261</v>
       </c>
       <c r="D44" t="n">
-        <v>1066.13491234106</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>772.9098308038049</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>345.0424012130127</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>345.0424012130127</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91224665622894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>490.7501447362868</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>490.7501447362868</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>490.7501447362868</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M44" t="n">
-        <v>1177.506428617977</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N44" t="n">
-        <v>1372.363729575105</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>1372.363729575105</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2059.120013456795</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2605.61879941539</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2774.772864168447</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2774.772864168447</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2774.772864168447</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2774.772864168447</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>2774.772864168447</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>2774.772864168447</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>2366.4867404681</v>
+        <v>2938.948694240745</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1617.704847680931</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1511.248386517573</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1416.158097664127</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1322.03768299108</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1238.653844607242</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1153.268754873426</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1111.533102689638</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1137.596775850096</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1462.155100816309</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2116.861147442032</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2116.861147442032</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2116.861147442032</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2116.861147442032</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2116.861147442032</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2116.861147442032</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2657.600086074107</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2774.772864168447</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2711.31742661683</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2581.138782947432</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2404.8022359474</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2205.6847180094</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2020.361963742594</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1865.494527981474</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1739.008748760694</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1134.55361789525</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C46" t="n">
-        <v>961.9919063784752</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D46" t="n">
-        <v>796.1139135799979</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E46" t="n">
-        <v>626.3559098307352</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F46" t="n">
-        <v>449.6488557924914</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>284.0575808183191</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>144.1554065086936</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.155067186169</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2636.598575256889</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2358.165574509995</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.210066380425</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1799.183661966717</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1553.791907300129</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1326.372236614237</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>138.4873165037802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,22 +8300,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984394</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>693.6932160421117</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>693.6932160421118</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
-        <v>226.014007865746</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>321.7896574451545</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>693.6932160421118</v>
+        <v>336.0996312917832</v>
       </c>
       <c r="P11" t="n">
-        <v>113.6462315973854</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>292.6537310256845</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M12" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8929,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>693.6932160421118</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>693.6932160421118</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>113.6462315973854</v>
+        <v>259.3095102562265</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>540.1539136732993</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10121,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>565.8642197954478</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10829,13 +10831,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>135.6158905067718</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>665.6652073131379</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>693.6932160421118</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>693.6932160421115</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>513.8269710869783</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>693.6932160421117</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>196.825556522351</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>411.4732220987969</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>267.4437309675399</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>161.9268490649753</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>411.8858435779281</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>245.1576530675503</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>73.62918697961805</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>52.94985625022238</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.7958207444067</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.21302026266331</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>111.4236523045819</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>48.19697732171662</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25634,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>267.8563524466712</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>329.0704884999267</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>117.7661826744371</v>
+        <v>29.11146680044081</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>7.269959635453574</v>
       </c>
       <c r="E44" t="n">
-        <v>139.1441666714047</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>594023.8071706953</v>
+        <v>593611.2628959584</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>389914.20371965</v>
+        <v>556331.9874696411</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>389914.2037196501</v>
+        <v>556331.987469641</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593249.6493070738</v>
+        <v>593249.6493070739</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>593249.6493070739</v>
+        <v>593249.6493070738</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>593249.6493070739</v>
+        <v>593249.6493070738</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593249.6493070738</v>
+        <v>593249.6493070739</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>389914.20371965</v>
+        <v>556331.9874696413</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>389914.20371965</v>
+        <v>556331.9874696411</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26322,22 @@
         <v>361899.4409260256</v>
       </c>
       <c r="E2" t="n">
-        <v>233737.5968986253</v>
+        <v>333498.2429172706</v>
       </c>
       <c r="F2" t="n">
-        <v>233737.5968986253</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="G2" t="n">
         <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="I2" t="n">
         <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="K2" t="n">
         <v>355628.8692927128</v>
@@ -26347,13 +26349,13 @@
         <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927129</v>
       </c>
       <c r="O2" t="n">
-        <v>233737.5968986253</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="P2" t="n">
-        <v>233737.5968986253</v>
+        <v>333498.2429172707</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8131.675070562576</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>160221.1249513057</v>
+        <v>29089.80917260794</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6625.418585724987</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130757.3002320199</v>
+        <v>130757.3002320198</v>
       </c>
       <c r="C4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>126566.6027926351</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18195.40143716129</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
-        <v>18195.40143716129</v>
+        <v>25961.3108416593</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18195.40143716129</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="P4" t="n">
-        <v>18195.40143716129</v>
+        <v>25961.31084165931</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75804.14753536039</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26497,7 +26499,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66770.08245179677</v>
+        <v>-66770.08245179668</v>
       </c>
       <c r="C6" t="n">
         <v>156929.6161322481</v>
       </c>
       <c r="D6" t="n">
-        <v>151397.0155274676</v>
+        <v>156929.616132248</v>
       </c>
       <c r="E6" t="n">
-        <v>173365.6479261036</v>
+        <v>85605.90302153476</v>
       </c>
       <c r="F6" t="n">
-        <v>173365.6479261036</v>
+        <v>236271.6565932826</v>
       </c>
       <c r="G6" t="n">
-        <v>90005.42698541182</v>
+        <v>221136.7427641097</v>
       </c>
       <c r="H6" t="n">
-        <v>250226.5519367177</v>
+        <v>250226.5519367176</v>
       </c>
       <c r="I6" t="n">
         <v>250226.5519367176</v>
       </c>
       <c r="J6" t="n">
-        <v>75575.20321901143</v>
+        <v>75575.20321901137</v>
       </c>
       <c r="K6" t="n">
         <v>250226.5519367176</v>
       </c>
       <c r="L6" t="n">
-        <v>243601.1333509926</v>
+        <v>250226.5519367176</v>
       </c>
       <c r="M6" t="n">
-        <v>250226.5519367176</v>
+        <v>124475.4636010269</v>
       </c>
       <c r="N6" t="n">
-        <v>250226.5519367176</v>
+        <v>250226.5519367177</v>
       </c>
       <c r="O6" t="n">
-        <v>173365.6479261036</v>
+        <v>236271.6565932826</v>
       </c>
       <c r="P6" t="n">
-        <v>173365.6479261036</v>
+        <v>236271.6565932827</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>693.6932160421118</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.17800943425483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>584.5672873426336</v>
+        <v>106.1342618990749</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.17800943425482</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778137</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.17800943425483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>584.5672873426336</v>
+        <v>106.1342618990749</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>328.833030588585</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>154.5594875100813</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>61.3629443172548</v>
       </c>
       <c r="E4" t="n">
-        <v>124.358989813076</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.329665100429111</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>370.2548715022045</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>124.3589898130756</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>102.9863699957345</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>268.2506310106169</v>
+        <v>11.64838566658591</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,10 +27912,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>48.19697732171626</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,19 +34789,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>138.4873165037802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212332</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645589</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>640.5448952297621</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984394</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35173,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>693.6932160421117</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>693.6932160421118</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
-        <v>226.014007865746</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>321.7896574451545</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35337,7 +35339,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>693.6932160421118</v>
+        <v>336.0996312917832</v>
       </c>
       <c r="P11" t="n">
-        <v>113.6462315973854</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>292.6537310256845</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M12" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35647,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>693.6932160421118</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>693.6932160421118</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P14" t="n">
-        <v>113.6462315973854</v>
+        <v>259.3095102562265</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>540.1539136732993</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36841,19 +36843,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>565.8642197954478</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37315,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37549,13 +37551,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>135.6158905067718</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924961003</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>665.6652073131379</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>693.6932160421118</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>693.6932160421115</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37870,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>513.8269710869783</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>693.6932160421117</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>196.825556522351</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1349104.975319593</v>
+        <v>1348498.887690696</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797162</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>274.8775098832064</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>257.5036770190664</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>102.8562685532377</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>418.7069096796296</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>94.75572470629955</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361157</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1113,10 +1113,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>166.3197703738368</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
-        <v>411.9403696282984</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1381,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>12.11553319608741</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>175.0349193669826</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>81.01098805494637</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.1507312021306</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>175.0349193669822</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170478</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.99728392830462</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>104.6990987647609</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170439</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>24.62703520776627</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735226156</v>
+        <v>22.2853439284767</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.31336456304354</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>85.8805502865557</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>135.1077460700517</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>424.2807273418463</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>175.0349193669826</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4045,7 +4045,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1919.879325414606</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>1481.736852598029</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D2" t="n">
-        <v>1449.867471812878</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,46 +4336,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.341725488304</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.526674939741</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X2" t="n">
-        <v>2350.424615559456</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y2" t="n">
-        <v>2346.178895899513</v>
+        <v>1003.274006966953</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.82106495262</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1992.21944446061</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1992.21944446061</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1992.21944446061</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1992.21944446061</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>2129.321887799353</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>2129.321887799353</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900.7186013536161</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1568898368411</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>624.2616690759949</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,40 +4500,40 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425083</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1319.956890758495</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.537220072603</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.9340324416416</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C5" t="n">
-        <v>138.8319636654689</v>
+        <v>614.7581953941713</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>178.8484105686157</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901678</v>
+        <v>149.114069767315</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304467</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2190.771296621484</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1828.15434655531</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>1423.298891966344</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1004.156428545654</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>595.8703048453078</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
         <v>447.554615037751</v>
@@ -4722,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4761,16 +4761,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>969.2487943945852</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>935.1467256184126</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>499.2369407928571</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>469.5025999915563</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2223.792002549092</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1818.936547960125</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1399.794084539436</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>991.5079608390889</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238914</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.310742413359</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E11" t="n">
-        <v>796.5359975716538</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F11" t="n">
-        <v>784.2980852523735</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G11" t="n">
-        <v>382.9002538756374</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>529.0247867717716</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>529.0247867717716</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>1686.072621982323</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>2811.80360541877</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,16 +5114,16 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1364.646878649722</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.409306699863</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.266833883286</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.357049057731</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.582304216026</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2325.877900782264</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>3451.608884218711</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>4431.788550789018</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>4688.504965942682</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4511.702017087146</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4252.479714404163</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>596.6048817268487</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E16" t="n">
-        <v>664.6305518662199</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.873217292374</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2674.873217292374</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2396.440216545479</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>2109.48470841591</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002201</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2613.163784754629</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2367.284338333084</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1801.895829456619</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>3011.896708242392</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>2846.018715443915</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>2676.260711694652</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>2499.553657656408</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6238,40 +6238,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,64 +6451,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423626</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993932</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.389162827329</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785923</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713112</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196337</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.43873639786</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648597</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.04201353898</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>5094.802844496296</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>4848.923398074751</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>4570.490397327857</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>4283.534889198288</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>4011.508484784579</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>3766.116730117991</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.6970594321</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6949,40 +6949,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>127.1366334099375</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7335,49 +7335,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066088</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745699</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173583</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.409306699863</v>
+        <v>2119.011475323127</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.266833883286</v>
+        <v>1680.86900250655</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.357049057731</v>
+        <v>1244.959217680994</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.582304216026</v>
+        <v>811.1844728392896</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G41" t="n">
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,46 +7417,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942682</v>
+        <v>4619.501567394155</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815721</v>
+        <v>4399.434340267194</v>
       </c>
       <c r="U41" t="n">
-        <v>4209.215436132738</v>
+        <v>4140.212037584211</v>
       </c>
       <c r="V41" t="n">
-        <v>3846.598486066564</v>
+        <v>3777.595087518037</v>
       </c>
       <c r="W41" t="n">
-        <v>3441.743031477597</v>
+        <v>3372.73963292907</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.995000885117</v>
+        <v>2953.597169508381</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.70887718477</v>
+        <v>2545.311045808035</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>973.664734160825</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>801.1030226440499</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>664.6305518662199</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>664.6305518662199</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279761</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2512.649123755838</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C44" t="n">
-        <v>2074.506650939261</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D44" t="n">
-        <v>1645.940259684871</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.362573827329</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.362573827329</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y44" t="n">
-        <v>2938.948694240745</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.2661363957848</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790097</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805324</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312697</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
         <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138.4873165037802</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8692,19 +8692,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>336.0996312917832</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>259.3095102562265</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.6956131767492</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11065,10 +11065,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>685.6170387597659</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>411.4732220987969</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>111.2039336442333</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>161.9268490649753</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>411.8858435779281</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>42.83163548870957</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>52.94985625022238</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>113.876117358763</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627218</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>14.50199051495782</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>329.0704884999267</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>29.11146680044081</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>7.269959635453574</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>111.2039336442333</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>556331.9874696411</v>
+        <v>556331.9874696413</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556331.987469641</v>
+        <v>556331.9874696411</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>593249.6493070739</v>
+        <v>593249.6493070738</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>593249.6493070739</v>
+        <v>593249.6493070738</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>556331.9874696411</v>
+        <v>556331.9874696413</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260259</v>
       </c>
       <c r="E2" t="n">
-        <v>333498.2429172706</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="F2" t="n">
         <v>333498.2429172707</v>
@@ -26337,25 +26337,25 @@
         <v>355628.8692927128</v>
       </c>
       <c r="J2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="K2" t="n">
         <v>355628.8692927128</v>
       </c>
       <c r="L2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="M2" t="n">
         <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
         <v>333498.2429172707</v>
       </c>
       <c r="P2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260794</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130757.3002320198</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="C4" t="n">
         <v>130757.3002320199</v>
@@ -26429,7 +26429,7 @@
         <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
-        <v>25961.3108416593</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26499,7 +26499,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-66770.08245179668</v>
+        <v>-66770.08245179677</v>
       </c>
       <c r="C6" t="n">
-        <v>156929.6161322481</v>
+        <v>156929.6161322482</v>
       </c>
       <c r="D6" t="n">
-        <v>156929.616132248</v>
+        <v>156929.6161322483</v>
       </c>
       <c r="E6" t="n">
-        <v>85605.90302153476</v>
+        <v>85500.71339928007</v>
       </c>
       <c r="F6" t="n">
-        <v>236271.6565932826</v>
+        <v>236166.466971028</v>
       </c>
       <c r="G6" t="n">
-        <v>221136.7427641097</v>
+        <v>221113.5184247272</v>
       </c>
       <c r="H6" t="n">
-        <v>250226.5519367176</v>
+        <v>250203.327597335</v>
       </c>
       <c r="I6" t="n">
-        <v>250226.5519367176</v>
+        <v>250203.327597335</v>
       </c>
       <c r="J6" t="n">
-        <v>75575.20321901137</v>
+        <v>75551.97887962879</v>
       </c>
       <c r="K6" t="n">
-        <v>250226.5519367176</v>
+        <v>250203.327597335</v>
       </c>
       <c r="L6" t="n">
-        <v>250226.5519367176</v>
+        <v>250203.3275973349</v>
       </c>
       <c r="M6" t="n">
-        <v>124475.4636010269</v>
+        <v>124452.2392616442</v>
       </c>
       <c r="N6" t="n">
-        <v>250226.5519367177</v>
+        <v>250203.327597335</v>
       </c>
       <c r="O6" t="n">
-        <v>236271.6565932826</v>
+        <v>236166.466971028</v>
       </c>
       <c r="P6" t="n">
-        <v>236271.6565932827</v>
+        <v>236166.4669710281</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990749</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990749</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>154.5594875100813</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>146.6995854442767</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>61.3629443172548</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.329665100429111</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>328.8330305885848</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27669,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>102.9863699957345</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>369.8422500230728</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11.64838566658591</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>138.4873165037802</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645589</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984391</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35412,19 +35412,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>336.0996312917832</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35433,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>259.3095102562265</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.6956131767492</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37703,10 +37703,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924961003</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37785,10 +37785,10 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38019,16 +38019,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>685.6170387597659</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
